--- a/data/trans_orig/P14B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{035BBC9C-FB6A-4118-98EF-0BA9202ED091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{706032F4-A4F0-49CC-9D85-728D6644B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FF501D8-AF3F-43B5-81B9-A4D0CED460D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5949659-FBA1-42AF-A499-6961D15C1937}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="395">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -94,16 +94,13 @@
     <t>45,73%</t>
   </si>
   <si>
-    <t>86,69%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>66,23%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -115,13 +112,10 @@
     <t>54,27%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>33,77%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -130,49 +124,49 @@
     <t>32,32%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>49,37%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>58,6%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -181,1024 +175,1054 @@
     <t>44,36%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>63,91%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>61,22%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>54,8%</t>
   </si>
   <si>
     <t>50,31%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>32,98%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>43,18%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>67,02%</t>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>48,6%</t>
   </si>
   <si>
-    <t>56,82%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47E6B25-9A62-4C0B-A272-B8A418E73433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4437AD88-97F8-4BDA-8A11-9B377576012A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,13 +1946,13 @@
         <v>3942</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1937,13 +1961,13 @@
         <v>3493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -1952,13 +1976,13 @@
         <v>7435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1997,13 @@
         <v>3942</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -1988,13 +2012,13 @@
         <v>6437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -2003,18 +2027,18 @@
         <v>10379</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2050,13 @@
         <v>2029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2041,13 +2065,13 @@
         <v>3124</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2056,13 +2080,13 @@
         <v>5154</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2101,13 @@
         <v>4249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2092,13 +2116,13 @@
         <v>3047</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2107,13 +2131,13 @@
         <v>7295</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2152,13 @@
         <v>6278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2143,13 +2167,13 @@
         <v>6171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -2158,18 +2182,18 @@
         <v>12449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2181,13 +2205,13 @@
         <v>2983</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2196,13 +2220,13 @@
         <v>12102</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2211,13 +2235,13 @@
         <v>15084</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2256,13 @@
         <v>3741</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2247,13 +2271,13 @@
         <v>6833</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2262,13 +2286,13 @@
         <v>10574</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2307,13 @@
         <v>6724</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2298,13 +2322,13 @@
         <v>18935</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>24</v>
@@ -2313,18 +2337,18 @@
         <v>25658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2336,13 +2360,13 @@
         <v>4517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2351,13 +2375,13 @@
         <v>2019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2366,13 +2390,13 @@
         <v>6536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2411,13 @@
         <v>984</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2408,7 +2432,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2417,13 +2441,13 @@
         <v>985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2462,13 @@
         <v>5501</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2453,13 +2477,13 @@
         <v>2019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2468,18 +2492,18 @@
         <v>7521</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2491,13 +2515,13 @@
         <v>4251</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2506,13 +2530,13 @@
         <v>1056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2521,13 +2545,13 @@
         <v>5307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2581,13 @@
         <v>2040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2572,13 +2596,13 @@
         <v>2040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2617,13 @@
         <v>4251</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2608,13 +2632,13 @@
         <v>3096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2623,18 +2647,18 @@
         <v>7347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2646,13 +2670,13 @@
         <v>3948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -2661,13 +2685,13 @@
         <v>9896</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2676,13 +2700,13 @@
         <v>13844</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2721,13 @@
         <v>1017</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2712,13 +2736,13 @@
         <v>9286</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2727,13 +2751,13 @@
         <v>10303</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2772,13 @@
         <v>4965</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2763,13 +2787,13 @@
         <v>19182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2778,18 +2802,18 @@
         <v>24147</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2801,13 +2825,13 @@
         <v>3167</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2816,13 +2840,13 @@
         <v>5586</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2831,13 +2855,13 @@
         <v>8753</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2876,13 @@
         <v>4337</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2867,13 +2891,13 @@
         <v>6367</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2882,13 +2906,13 @@
         <v>10704</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2927,13 @@
         <v>7504</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2918,13 +2942,13 @@
         <v>11953</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>18</v>
@@ -2933,13 +2957,13 @@
         <v>19457</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2980,13 @@
         <v>20895</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2971,13 +2995,13 @@
         <v>36728</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -2986,13 +3010,13 @@
         <v>57623</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3031,13 @@
         <v>18270</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -3022,13 +3046,13 @@
         <v>31066</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -3037,13 +3061,13 @@
         <v>49336</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3082,13 @@
         <v>39165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -3073,13 +3097,13 @@
         <v>67794</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" s="7">
         <v>97</v>
@@ -3088,18 +3112,18 @@
         <v>106959</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03671F24-7021-457E-AB5A-C7F3784666C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A1A1D-454E-4D9D-938A-163776B2B80E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3253,7 +3277,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3262,13 +3286,13 @@
         <v>5850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3277,13 +3301,13 @@
         <v>5850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3322,13 @@
         <v>869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3313,13 +3337,13 @@
         <v>1014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3328,13 +3352,13 @@
         <v>1883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3373,13 @@
         <v>869</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3364,13 +3388,13 @@
         <v>6864</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -3379,13 +3403,13 @@
         <v>7733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3426,13 @@
         <v>2122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3417,13 +3441,13 @@
         <v>3310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3432,13 +3456,13 @@
         <v>5433</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3477,13 @@
         <v>1987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3468,13 +3492,13 @@
         <v>1169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3483,13 +3507,13 @@
         <v>3156</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3528,13 @@
         <v>4109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3519,13 +3543,13 @@
         <v>4479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -3534,18 +3558,18 @@
         <v>8589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3557,13 +3581,13 @@
         <v>4318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3572,13 +3596,13 @@
         <v>7572</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3587,13 +3611,13 @@
         <v>11889</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3632,13 @@
         <v>963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3623,13 +3647,13 @@
         <v>5161</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3638,13 +3662,13 @@
         <v>6125</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3683,13 @@
         <v>5281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3674,13 +3698,13 @@
         <v>12733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3689,18 +3713,18 @@
         <v>18014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3712,13 +3736,13 @@
         <v>957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3727,13 +3751,13 @@
         <v>7169</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3742,13 +3766,13 @@
         <v>8127</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3787,13 @@
         <v>4669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3778,13 +3802,13 @@
         <v>4041</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3793,13 +3817,13 @@
         <v>8709</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3838,13 @@
         <v>5626</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -3829,13 +3853,13 @@
         <v>11210</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -3844,18 +3868,18 @@
         <v>16836</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3867,13 +3891,13 @@
         <v>1967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3882,13 +3906,13 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3897,13 +3921,13 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3942,13 @@
         <v>891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3939,7 +3963,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3948,13 +3972,13 @@
         <v>891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3993,13 @@
         <v>2858</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3984,13 +4008,13 @@
         <v>981</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -3999,18 +4023,18 @@
         <v>3839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4022,13 +4046,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4037,13 +4061,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4052,13 +4076,13 @@
         <v>2080</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4094,7 +4118,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4109,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4148,13 @@
         <v>793</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4139,13 +4163,13 @@
         <v>1287</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4154,18 +4178,18 @@
         <v>2080</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4177,13 +4201,13 @@
         <v>3778</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4192,13 +4216,13 @@
         <v>6995</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4207,13 +4231,13 @@
         <v>10773</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4252,13 @@
         <v>898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -4243,13 +4267,13 @@
         <v>8983</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -4258,10 +4282,10 @@
         <v>9880</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>211</v>
@@ -4279,13 +4303,13 @@
         <v>4676</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -4294,13 +4318,13 @@
         <v>15978</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4309,18 +4333,18 @@
         <v>20653</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4389,7 +4413,7 @@
         <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4434,13 +4458,13 @@
         <v>5522</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -4449,13 +4473,13 @@
         <v>17618</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -4464,13 +4488,13 @@
         <v>23140</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4613,13 @@
         <v>29734</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -4604,13 +4628,13 @@
         <v>71150</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" s="7">
         <v>94</v>
@@ -4619,18 +4643,18 @@
         <v>100884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14777A89-D7FE-4BFB-942D-A74A8E4B20E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0381F32-DC00-4DF8-82B7-7E785F17D651}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4784,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4799,7 +4823,7 @@
         <v>249</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4835,7 +4859,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4880,13 +4904,13 @@
         <v>2431</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4895,13 +4919,13 @@
         <v>3453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4910,13 +4934,13 @@
         <v>5884</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4963,7 @@
         <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4954,7 +4978,7 @@
         <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5035,13 +5059,13 @@
         <v>10862</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5050,13 +5074,13 @@
         <v>8599</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5065,18 +5089,18 @@
         <v>19461</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5160,7 +5184,7 @@
         <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5190,13 +5214,13 @@
         <v>6894</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -5205,13 +5229,13 @@
         <v>10109</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -5220,18 +5244,18 @@
         <v>17003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5345,13 +5369,13 @@
         <v>6244</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
@@ -5360,13 +5384,13 @@
         <v>11527</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>32</v>
@@ -5375,18 +5399,18 @@
         <v>17770</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5455,7 +5479,7 @@
         <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5500,13 +5524,13 @@
         <v>4831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5515,13 +5539,13 @@
         <v>8094</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -5530,18 +5554,18 @@
         <v>12925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5574,7 +5598,7 @@
         <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5583,13 +5607,13 @@
         <v>5549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5628,13 @@
         <v>5143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5619,13 +5643,13 @@
         <v>3617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -5634,13 +5658,13 @@
         <v>8760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5679,13 @@
         <v>8219</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5670,13 +5694,13 @@
         <v>6091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -5685,18 +5709,18 @@
         <v>14309</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5708,13 +5732,13 @@
         <v>6014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5723,13 +5747,13 @@
         <v>6171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5738,13 +5762,13 @@
         <v>12186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5783,13 @@
         <v>11528</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5774,13 +5798,13 @@
         <v>5217</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -5789,13 +5813,13 @@
         <v>16744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5834,13 @@
         <v>17542</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5825,13 +5849,13 @@
         <v>11388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -5840,18 +5864,18 @@
         <v>28930</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5863,13 +5887,13 @@
         <v>5388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5878,13 +5902,13 @@
         <v>16364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -5893,13 +5917,13 @@
         <v>21752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5938,13 @@
         <v>11565</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5929,13 +5953,13 @@
         <v>10454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5944,13 +5968,13 @@
         <v>22019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5989,13 @@
         <v>16953</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -5980,13 +6004,13 @@
         <v>26818</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -5995,13 +6019,13 @@
         <v>43771</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6042,13 @@
         <v>31987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -6033,13 +6057,13 @@
         <v>44246</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="M28" s="7">
         <v>114</v>
@@ -6048,13 +6072,13 @@
         <v>76233</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6093,13 @@
         <v>41988</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -6084,13 +6108,13 @@
         <v>41832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -6099,13 +6123,13 @@
         <v>83820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6144,13 @@
         <v>73975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7">
         <v>148</v>
@@ -6135,13 +6159,13 @@
         <v>86078</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M30" s="7">
         <v>243</v>
@@ -6150,18 +6174,18 @@
         <v>160053</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B01-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{706032F4-A4F0-49CC-9D85-728D6644B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85548E2-6987-47CA-85A6-41E5FA1AE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5949659-FBA1-42AF-A499-6961D15C1937}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBD5688F-3BF7-454F-A4DD-ED549D3FB5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="391">
   <si>
     <t>Población cuyo cáncer le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -100,7 +100,7 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>66,23%</t>
+    <t>67,7%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -115,7 +115,7 @@
     <t>71,64%</t>
   </si>
   <si>
-    <t>33,77%</t>
+    <t>32,3%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -139,10 +139,10 @@
     <t>41,4%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
   </si>
   <si>
     <t>67,68%</t>
@@ -163,10 +163,10 @@
     <t>58,6%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -175,7 +175,7 @@
     <t>44,36%</t>
   </si>
   <si>
-    <t>14,21%</t>
+    <t>14,49%</t>
   </si>
   <si>
     <t>85,83%</t>
@@ -184,19 +184,19 @@
     <t>63,91%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>55,64%</t>
@@ -205,25 +205,25 @@
     <t>14,17%</t>
   </si>
   <si>
-    <t>85,79%</t>
+    <t>85,51%</t>
   </si>
   <si>
     <t>36,09%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -241,7 +241,7 @@
     <t>86,91%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>17,9%</t>
@@ -256,7 +256,7 @@
     <t>13,09%</t>
   </si>
   <si>
-    <t>65,14%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -268,7 +268,7 @@
     <t>72,24%</t>
   </si>
   <si>
-    <t>29,21%</t>
+    <t>29,19%</t>
   </si>
   <si>
     <t>65,88%</t>
@@ -277,7 +277,7 @@
     <t>27,76%</t>
   </si>
   <si>
-    <t>70,79%</t>
+    <t>70,81%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -286,49 +286,49 @@
     <t>79,52%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>20,49%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
   </si>
   <si>
     <t>57,33%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>69,95%</t>
+    <t>79,51%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -337,277 +337,277 @@
     <t>42,2%</t>
   </si>
   <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo cáncer le limita en 2016 (Tasa respuesta: 1,43%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo cáncer le limita en 2015 (Tasa respuesta: 1,43%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
+    <t>62,15%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>68,49%</t>
+    <t>67,01%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>48,27%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>31,51%</t>
+    <t>32,99%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>68,81%</t>
@@ -631,151 +631,151 @@
     <t>80,8%</t>
   </si>
   <si>
-    <t>23,05%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>43,78%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>76,95%</t>
+    <t>60,15%</t>
   </si>
   <si>
     <t>56,22%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>47,84%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>83,69%</t>
   </si>
   <si>
     <t>57,17%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>46,86%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>45,66%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>Población cuyo cáncer le limita en 2023 (Tasa respuesta: 2,78%)</t>
@@ -907,9 +907,6 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
     <t>18,26%</t>
   </si>
   <si>
@@ -934,9 +931,6 @@
     <t>67,85%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
     <t>6,07%</t>
   </si>
   <si>
@@ -1063,9 +1057,6 @@
     <t>78,13%</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
     <t>18,22%</t>
   </si>
   <si>
@@ -1088,9 +1079,6 @@
   </si>
   <si>
     <t>58,51%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
   </si>
   <si>
     <t>40,03%</t>
@@ -1634,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4437AD88-97F8-4BDA-8A11-9B377576012A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A59C270-ACE1-400E-8BDF-D8A8748688FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2992,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="I28" s="7">
-        <v>36728</v>
+        <v>36727</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>119</v>
@@ -3094,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="I30" s="7">
-        <v>67794</v>
+        <v>67793</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>22</v>
@@ -3147,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A1A1D-454E-4D9D-938A-163776B2B80E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813D07C0-5C2E-4296-9D2F-D867272A669B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4538,7 +4526,7 @@
         <v>55</v>
       </c>
       <c r="N28" s="7">
-        <v>59395</v>
+        <v>59396</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>234</v>
@@ -4640,7 +4628,7 @@
         <v>94</v>
       </c>
       <c r="N30" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>22</v>
@@ -4678,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0381F32-DC00-4DF8-82B7-7E785F17D651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56233826-E8B9-4362-9A0A-50F617A43880}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5267,13 +5255,13 @@
         <v>3672</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5282,13 +5270,13 @@
         <v>5069</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5297,13 +5285,13 @@
         <v>8741</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5306,13 @@
         <v>2572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5333,13 +5321,13 @@
         <v>6458</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -5348,13 +5336,13 @@
         <v>9029</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5410,13 @@
         <v>628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5437,13 +5425,13 @@
         <v>2843</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5452,13 +5440,13 @@
         <v>3471</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +5461,10 @@
         <v>4203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -5488,13 +5476,13 @@
         <v>5251</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5503,13 +5491,13 @@
         <v>9454</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5565,13 @@
         <v>3076</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5592,13 +5580,13 @@
         <v>2474</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5607,13 +5595,13 @@
         <v>5549</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5616,13 @@
         <v>5143</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5643,13 +5631,13 @@
         <v>3617</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -5658,13 +5646,13 @@
         <v>8760</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5720,13 @@
         <v>6014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5747,13 +5735,13 @@
         <v>6171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5762,13 +5750,13 @@
         <v>12186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5771,13 @@
         <v>11528</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5798,13 +5786,13 @@
         <v>5217</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -5813,13 +5801,13 @@
         <v>16744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5875,13 @@
         <v>5388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5902,13 +5890,13 @@
         <v>16364</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -5917,13 +5905,13 @@
         <v>21752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5926,13 @@
         <v>11565</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5953,13 +5941,13 @@
         <v>10454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -5968,13 +5956,13 @@
         <v>22019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6030,13 @@
         <v>31987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
         <v>74</v>
@@ -6057,13 +6045,13 @@
         <v>44246</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M28" s="7">
         <v>114</v>
@@ -6072,13 +6060,13 @@
         <v>76233</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6081,13 @@
         <v>41988</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -6108,13 +6096,13 @@
         <v>41832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -6123,13 +6111,13 @@
         <v>83820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
